--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\eclipseWorkspaces\2019\konto2\accounting-excel\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="108">
   <si>
     <t>Betrag</t>
   </si>
@@ -703,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI210"/>
+  <dimension ref="A1:AI212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4144,6 +4140,37 @@
         <v>67</v>
       </c>
     </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A211" s="13">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="O211" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A212" s="13">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="D212" s="1">
+        <v>138.43</v>
+      </c>
+      <c r="O212" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\eclipseWorkspaces\2019\konto2\accounting-excel\src\main\resources\VB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7692"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="110">
   <si>
     <t>Betrag</t>
   </si>
@@ -344,6 +348,12 @@
   </si>
   <si>
     <t>Zeitraum bis</t>
+  </si>
+  <si>
+    <t>Hauptkonto</t>
+  </si>
+  <si>
+    <t>Hauptreferenz</t>
   </si>
 </sst>
 </file>
@@ -699,11 +709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI212"/>
+  <dimension ref="A1:AK212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,14 +724,16 @@
     <col min="4" max="4" width="11.5546875" style="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="37" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -740,95 +752,101 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -838,11 +856,11 @@
       <c r="C2" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -858,11 +876,11 @@
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -875,11 +893,11 @@
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AA4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -889,11 +907,11 @@
       <c r="C5" s="1">
         <v>-20</v>
       </c>
-      <c r="W5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -903,11 +921,11 @@
       <c r="C6" s="1">
         <v>-32.86</v>
       </c>
-      <c r="X6" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Z6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -920,11 +938,11 @@
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AA7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -934,11 +952,11 @@
       <c r="C8" s="1">
         <v>-530</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="O8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -954,11 +972,11 @@
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="R9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -971,11 +989,11 @@
       <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -991,11 +1009,11 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1008,11 +1026,11 @@
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1022,11 +1040,11 @@
       <c r="C13" s="1">
         <v>-91</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1039,11 +1057,11 @@
       <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE14" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1056,11 +1074,11 @@
       <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AC15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1073,11 +1091,11 @@
       <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1087,11 +1105,11 @@
       <c r="C17" s="1">
         <v>-14.05</v>
       </c>
-      <c r="AF17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1101,11 +1119,11 @@
       <c r="C18" s="1">
         <v>-7.49</v>
       </c>
-      <c r="AF18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1118,11 +1136,11 @@
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1132,11 +1150,11 @@
       <c r="C20" s="1">
         <v>-18.95</v>
       </c>
-      <c r="U20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1146,11 +1164,11 @@
       <c r="C21" s="1">
         <v>-52.28</v>
       </c>
-      <c r="U21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1160,11 +1178,11 @@
       <c r="C22" s="1">
         <v>-19.309999999999999</v>
       </c>
-      <c r="U22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1177,11 +1195,11 @@
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1194,11 +1212,11 @@
       <c r="F24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1211,11 +1229,11 @@
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1228,11 +1246,11 @@
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1245,11 +1263,11 @@
       <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1259,11 +1277,11 @@
       <c r="C28" s="1">
         <v>-23.98</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="V28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1276,11 +1294,11 @@
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S29" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="U29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1296,11 +1314,11 @@
       <c r="F30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="L30" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1310,11 +1328,11 @@
       <c r="C31" s="1">
         <v>-29.07</v>
       </c>
-      <c r="U31" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1327,17 +1345,17 @@
       <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="5">
+      <c r="I32" s="5">
         <v>43887</v>
       </c>
-      <c r="H32" s="5">
+      <c r="J32" s="5">
         <v>43900</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1347,11 +1365,11 @@
       <c r="C33" s="1">
         <v>-66.430000000000007</v>
       </c>
-      <c r="Z33" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB33" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1361,11 +1379,11 @@
       <c r="C34" s="1">
         <v>-30.17</v>
       </c>
-      <c r="T34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1381,11 +1399,11 @@
       <c r="F35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1395,11 +1413,11 @@
       <c r="C36" s="1">
         <v>-4.28</v>
       </c>
-      <c r="U36" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1409,17 +1427,17 @@
       <c r="C37" s="1">
         <v>83.19</v>
       </c>
-      <c r="G37" s="5">
+      <c r="I37" s="5">
         <v>43846</v>
       </c>
-      <c r="H37" s="5">
+      <c r="J37" s="5">
         <v>43846</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N37" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1429,11 +1447,11 @@
       <c r="C38" s="1">
         <v>-20.98</v>
       </c>
-      <c r="P38" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1443,17 +1461,17 @@
       <c r="C39" s="1">
         <v>499.14</v>
       </c>
-      <c r="G39" s="5">
+      <c r="I39" s="5">
         <v>43847</v>
       </c>
-      <c r="H39" s="5">
+      <c r="J39" s="5">
         <v>43852</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N39" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1463,11 +1481,11 @@
       <c r="C40" s="1">
         <v>-26.31</v>
       </c>
-      <c r="AE40" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1477,11 +1495,11 @@
       <c r="C41" s="1">
         <v>-38.450000000000003</v>
       </c>
-      <c r="U41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W41" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1491,11 +1509,11 @@
       <c r="C42" s="1">
         <v>-6.09</v>
       </c>
-      <c r="U42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -1508,11 +1526,11 @@
       <c r="F43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L43" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -1522,11 +1540,11 @@
       <c r="C44" s="1">
         <v>-45.03</v>
       </c>
-      <c r="P44" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -1542,11 +1560,11 @@
       <c r="F45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R45" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -1559,11 +1577,11 @@
       <c r="F46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V46" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -1579,11 +1597,11 @@
       <c r="F47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R47" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -1593,11 +1611,11 @@
       <c r="C48" s="1">
         <v>-7</v>
       </c>
-      <c r="P48" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R48" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -1610,11 +1628,11 @@
       <c r="F49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -1624,11 +1642,11 @@
       <c r="C50" s="1">
         <v>-767</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M50" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -1641,11 +1659,11 @@
       <c r="F51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="V51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -1655,11 +1673,11 @@
       <c r="C52" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AE52" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -1672,11 +1690,11 @@
       <c r="F53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L53" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -1686,11 +1704,11 @@
       <c r="C54" s="1">
         <v>-20</v>
       </c>
-      <c r="V54" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="X54" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -1700,11 +1718,11 @@
       <c r="C55" s="1">
         <v>-32.86</v>
       </c>
-      <c r="X55" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z55" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -1714,11 +1732,11 @@
       <c r="C56" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="Y56" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -1731,11 +1749,11 @@
       <c r="F57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y57" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA57" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -1745,11 +1763,11 @@
       <c r="C58" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="P58" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R58" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -1759,11 +1777,11 @@
       <c r="C59" s="1">
         <v>-530</v>
       </c>
-      <c r="M59" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O59" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -1773,11 +1791,11 @@
       <c r="C60" s="1">
         <v>-17.47</v>
       </c>
-      <c r="U60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W60" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -1787,11 +1805,11 @@
       <c r="C61" s="1">
         <v>-7.26</v>
       </c>
-      <c r="U61" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W61" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -1801,11 +1819,11 @@
       <c r="C62" s="1">
         <v>-61.65</v>
       </c>
-      <c r="Z62" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB62" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -1815,11 +1833,11 @@
       <c r="C63" s="1">
         <v>-30</v>
       </c>
-      <c r="AE63" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG63" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -1835,11 +1853,11 @@
       <c r="F64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P64" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R64" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -1849,11 +1867,11 @@
       <c r="C65" s="1">
         <v>-12.98</v>
       </c>
-      <c r="P65" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R65" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -1863,11 +1881,11 @@
       <c r="C66" s="1">
         <v>-14.16</v>
       </c>
-      <c r="AE66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG66" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -1877,17 +1895,17 @@
       <c r="C67" s="1">
         <v>1081.47</v>
       </c>
-      <c r="G67" s="5">
+      <c r="I67" s="5">
         <v>43853</v>
       </c>
-      <c r="H67" s="5">
+      <c r="J67" s="5">
         <v>43866</v>
       </c>
-      <c r="L67" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N67" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -1897,11 +1915,11 @@
       <c r="C68" s="1">
         <v>-45</v>
       </c>
-      <c r="Q68" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S68" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -1911,11 +1929,11 @@
       <c r="C69" s="1">
         <v>-135</v>
       </c>
-      <c r="AA69" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -1925,11 +1943,11 @@
       <c r="C70" s="1">
         <v>-12.24</v>
       </c>
-      <c r="U70" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W70" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -1945,11 +1963,11 @@
       <c r="F71" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P71" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -1959,11 +1977,11 @@
       <c r="C72" s="1">
         <v>-10.96</v>
       </c>
-      <c r="U72" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W72" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -1976,11 +1994,11 @@
       <c r="F73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T73" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -1993,11 +2011,11 @@
       <c r="F74" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L74" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -2010,11 +2028,11 @@
       <c r="F75" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W75" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -2030,11 +2048,11 @@
       <c r="F76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S76" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="U76" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -2044,11 +2062,11 @@
       <c r="C77" s="1">
         <v>-4.43</v>
       </c>
-      <c r="U77" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W77" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -2061,11 +2079,11 @@
       <c r="F78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AE78" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG78" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -2075,11 +2093,11 @@
       <c r="C79" s="1">
         <v>-150</v>
       </c>
-      <c r="K79" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M79" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -2089,11 +2107,11 @@
       <c r="C80" s="1">
         <v>-43.64</v>
       </c>
-      <c r="T80" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V80" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -2103,11 +2121,11 @@
       <c r="C81" s="1">
         <v>-30.61</v>
       </c>
-      <c r="T81" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V81" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -2123,17 +2141,17 @@
       <c r="F82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="5">
+      <c r="I82" s="5">
         <v>43867</v>
       </c>
-      <c r="H82" s="5">
+      <c r="J82" s="5">
         <v>43882</v>
       </c>
-      <c r="L82" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N82" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -2143,11 +2161,11 @@
       <c r="C83" s="1">
         <v>-6.5</v>
       </c>
-      <c r="O83" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q83" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -2163,11 +2181,11 @@
       <c r="F84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L84" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -2177,11 +2195,11 @@
       <c r="C85" s="1">
         <v>-6.92</v>
       </c>
-      <c r="U85" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W85" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -2191,11 +2209,11 @@
       <c r="C86" s="1">
         <v>-12.6</v>
       </c>
-      <c r="U86" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W86" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -2205,17 +2223,17 @@
       <c r="C87" s="1">
         <v>332.76</v>
       </c>
-      <c r="G87" s="5">
+      <c r="I87" s="5">
         <v>43883</v>
       </c>
-      <c r="H87" s="5">
+      <c r="J87" s="5">
         <v>43886</v>
       </c>
-      <c r="L87" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N87" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -2228,11 +2246,11 @@
       <c r="F88" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N88" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P88" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -2242,11 +2260,11 @@
       <c r="C89" s="1">
         <v>-395</v>
       </c>
-      <c r="K89" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M89" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -2256,11 +2274,11 @@
       <c r="C90" s="1">
         <v>-20</v>
       </c>
-      <c r="W90" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y90" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -2270,11 +2288,11 @@
       <c r="C91" s="1">
         <v>-32.86</v>
       </c>
-      <c r="X91" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z91" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -2287,11 +2305,11 @@
       <c r="F92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y92" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA92" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -2304,11 +2322,11 @@
       <c r="F93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y93" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA93" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -2318,11 +2336,11 @@
       <c r="C94" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="P94" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R94" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -2335,11 +2353,11 @@
       <c r="F95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="V95" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X95" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -2349,11 +2367,11 @@
       <c r="C96" s="1">
         <v>-530</v>
       </c>
-      <c r="M96" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O96" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -2366,11 +2384,11 @@
       <c r="F97" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AE97" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG97" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -2383,11 +2401,11 @@
       <c r="F98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N98" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P98" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -2397,11 +2415,11 @@
       <c r="C99" s="1">
         <v>-97.75</v>
       </c>
-      <c r="AC99" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE99" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -2414,11 +2432,11 @@
       <c r="F100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AE100" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG100" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -2431,11 +2449,11 @@
       <c r="F101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE101" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG101" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -2445,11 +2463,11 @@
       <c r="C102" s="1">
         <v>-73.95</v>
       </c>
-      <c r="AA102" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC102" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -2459,11 +2477,11 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="U103" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W103" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -2473,11 +2491,11 @@
       <c r="C104" s="1">
         <v>-3.87</v>
       </c>
-      <c r="U104" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W104" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -2487,11 +2505,11 @@
       <c r="C105" s="1">
         <v>-6.3</v>
       </c>
-      <c r="O105" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q105" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -2504,11 +2522,11 @@
       <c r="F106" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N106" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P106" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -2521,11 +2539,11 @@
       <c r="F107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N107" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P107" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -2535,11 +2553,11 @@
       <c r="C108" s="1">
         <v>-45</v>
       </c>
-      <c r="Q108" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S108" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -2549,11 +2567,11 @@
       <c r="C109" s="1">
         <v>-6.3</v>
       </c>
-      <c r="O109" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q109" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -2563,11 +2581,11 @@
       <c r="C110" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U110" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W110" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -2577,11 +2595,11 @@
       <c r="C111" s="1">
         <v>-6.3</v>
       </c>
-      <c r="O111" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q111" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -2591,11 +2609,11 @@
       <c r="C112" s="1">
         <v>-29.98</v>
       </c>
-      <c r="T112" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V112" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -2605,11 +2623,11 @@
       <c r="C113" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U113" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W113" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -2619,11 +2637,11 @@
       <c r="C114" s="1">
         <v>-11.5</v>
       </c>
-      <c r="Z114" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB114" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -2633,11 +2651,11 @@
       <c r="C115" s="1">
         <v>-75</v>
       </c>
-      <c r="AA115" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC115" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -2653,11 +2671,11 @@
       <c r="F116" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J116" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L116" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -2667,11 +2685,11 @@
       <c r="C117" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U117" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W117" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -2687,11 +2705,11 @@
       <c r="F118" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L118" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -2701,11 +2719,11 @@
       <c r="C119" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U119" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W119" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -2715,11 +2733,11 @@
       <c r="C120" s="1">
         <v>-9.27</v>
       </c>
-      <c r="U120" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W120" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -2729,11 +2747,11 @@
       <c r="C121" s="1">
         <v>-36.1</v>
       </c>
-      <c r="U121" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W121" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -2743,11 +2761,11 @@
       <c r="C122" s="1">
         <v>98.98</v>
       </c>
-      <c r="P122" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R122" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -2760,11 +2778,11 @@
       <c r="F123" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N123" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P123" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -2774,11 +2792,11 @@
       <c r="C124" s="1">
         <v>-34.229999999999997</v>
       </c>
-      <c r="P124" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R124" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -2788,11 +2806,11 @@
       <c r="C125" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U125" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W125" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -2802,11 +2820,11 @@
       <c r="C126" s="1">
         <v>-15.97</v>
       </c>
-      <c r="Z126" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB126" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -2816,17 +2834,17 @@
       <c r="C127" s="1">
         <v>1247.8499999999999</v>
       </c>
-      <c r="G127" s="5">
+      <c r="I127" s="5">
         <v>43831</v>
       </c>
-      <c r="H127" s="5">
+      <c r="J127" s="5">
         <v>43845</v>
       </c>
-      <c r="L127" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N127" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -2836,11 +2854,11 @@
       <c r="C128" s="1">
         <v>-31</v>
       </c>
-      <c r="S128" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U128" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -2850,11 +2868,11 @@
       <c r="C129" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U129" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W129" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -2864,11 +2882,11 @@
       <c r="C130" s="1">
         <v>-2.89</v>
       </c>
-      <c r="U130" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W130" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -2878,11 +2896,11 @@
       <c r="C131" s="1">
         <v>-6.27</v>
       </c>
-      <c r="U131" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W131" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -2898,11 +2916,11 @@
       <c r="F132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N132" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P132" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -2912,11 +2930,11 @@
       <c r="C133" s="1">
         <v>-395</v>
       </c>
-      <c r="K133" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M133" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -2926,11 +2944,11 @@
       <c r="C134" s="1">
         <v>-29.95</v>
       </c>
-      <c r="T134" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V134" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -2940,11 +2958,11 @@
       <c r="C135" s="1">
         <v>-19.16</v>
       </c>
-      <c r="Z135" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB135" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -2954,11 +2972,11 @@
       <c r="C136" s="1">
         <v>-65.5</v>
       </c>
-      <c r="P136" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R136" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -2968,11 +2986,11 @@
       <c r="C137" s="1">
         <v>-6.3</v>
       </c>
-      <c r="O137" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Q137" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -2982,11 +3000,11 @@
       <c r="C138" s="1">
         <v>-9.25</v>
       </c>
-      <c r="U138" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W138" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -2999,17 +3017,17 @@
       <c r="F139" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G139" s="5">
+      <c r="I139" s="5">
         <v>43901</v>
       </c>
-      <c r="H139" s="5">
+      <c r="J139" s="5">
         <v>43913</v>
       </c>
-      <c r="L139" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N139" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -3019,11 +3037,11 @@
       <c r="C140" s="1">
         <v>-790</v>
       </c>
-      <c r="K140" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M140" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -3033,11 +3051,11 @@
       <c r="C141" s="1">
         <v>-22.5</v>
       </c>
-      <c r="Z141" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB141" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -3047,11 +3065,11 @@
       <c r="C142" s="1">
         <v>-3.58</v>
       </c>
-      <c r="U142" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W142" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -3064,11 +3082,11 @@
       <c r="F143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N143" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P143" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -3081,11 +3099,11 @@
       <c r="F144" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N144" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P144" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -3095,12 +3113,12 @@
       <c r="C145" s="1">
         <v>-135</v>
       </c>
-      <c r="L145" s="8"/>
-      <c r="AA145" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N145" s="8"/>
+      <c r="AC145" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -3110,11 +3128,11 @@
       <c r="C146" s="1">
         <v>-6.3</v>
       </c>
-      <c r="O146" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q146" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -3124,11 +3142,11 @@
       <c r="C147" s="1">
         <v>-25.13</v>
       </c>
-      <c r="Z147" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB147" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -3138,11 +3156,11 @@
       <c r="C148" s="1">
         <v>-11.21</v>
       </c>
-      <c r="Z148" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB148" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -3152,11 +3170,11 @@
       <c r="C149" s="1">
         <v>-6.5</v>
       </c>
-      <c r="O149" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q149" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -3166,11 +3184,11 @@
       <c r="C150" s="1">
         <v>-12.29</v>
       </c>
-      <c r="U150" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W150" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -3183,12 +3201,14 @@
       <c r="F151" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I151" s="1"/>
-      <c r="V151" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="X151" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -3204,11 +3224,11 @@
       <c r="F152" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AE152" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG152" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -3218,11 +3238,11 @@
       <c r="C153" s="1">
         <v>-24.94</v>
       </c>
-      <c r="AC153" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE153" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -3232,11 +3252,11 @@
       <c r="C154" s="1">
         <v>-2.75</v>
       </c>
-      <c r="U154" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W154" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -3249,11 +3269,11 @@
       <c r="F155" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N155" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="P155" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -3263,11 +3283,11 @@
       <c r="C156" s="1">
         <v>-140</v>
       </c>
-      <c r="AD156" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF156" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -3277,11 +3297,11 @@
       <c r="C157" s="1">
         <v>-20</v>
       </c>
-      <c r="W157" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y157" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -3291,11 +3311,11 @@
       <c r="C158" s="1">
         <v>-32.86</v>
       </c>
-      <c r="X158" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z158" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -3308,11 +3328,11 @@
       <c r="F159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y159" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA159" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -3325,11 +3345,11 @@
       <c r="F160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Y160" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AA160" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -3339,11 +3359,11 @@
       <c r="C161" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="P161" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R161" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -3353,11 +3373,11 @@
       <c r="C162" s="1">
         <v>-21.26</v>
       </c>
-      <c r="Z162" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB162" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -3367,11 +3387,11 @@
       <c r="C163" s="1">
         <v>-2.75</v>
       </c>
-      <c r="U163" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W163" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -3381,11 +3401,11 @@
       <c r="C164" s="1">
         <v>-530</v>
       </c>
-      <c r="M164" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O164" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -3395,11 +3415,11 @@
       <c r="C165" s="1">
         <v>-2.73</v>
       </c>
-      <c r="U165" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W165" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -3409,17 +3429,17 @@
       <c r="C166" s="1">
         <v>665.52</v>
       </c>
-      <c r="G166" s="5">
+      <c r="I166" s="5">
         <v>43914</v>
       </c>
-      <c r="H166" s="5">
+      <c r="J166" s="5">
         <v>43922</v>
       </c>
-      <c r="L166" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="N166" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -3432,11 +3452,11 @@
       <c r="D167" s="1">
         <v>442.52</v>
       </c>
-      <c r="U167" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W167" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -3449,11 +3469,11 @@
       <c r="D168" s="1">
         <v>436.22</v>
       </c>
-      <c r="O168" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q168" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -3466,11 +3486,11 @@
       <c r="F169" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AE169" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG169" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -3483,11 +3503,11 @@
       <c r="F170" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AE170" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG170" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -3497,11 +3517,11 @@
       <c r="C171" s="1">
         <v>-0.54</v>
       </c>
-      <c r="U171" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W171" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -3514,11 +3534,11 @@
       <c r="D172" s="1">
         <v>382.39</v>
       </c>
-      <c r="U172" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W172" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -3528,11 +3548,11 @@
       <c r="C173" s="1">
         <v>-27.76</v>
       </c>
-      <c r="Z173" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB173" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -3548,11 +3568,11 @@
       <c r="F174" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U174" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W174" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -3568,11 +3588,11 @@
       <c r="F175" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U175" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W175" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -3582,11 +3602,11 @@
       <c r="C176" s="1">
         <v>-19.95</v>
       </c>
-      <c r="Z176" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB176" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -3596,11 +3616,11 @@
       <c r="C177" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U177" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W177" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -3610,11 +3630,11 @@
       <c r="C178" s="1">
         <v>-1.79</v>
       </c>
-      <c r="U178" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W178" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -3627,11 +3647,11 @@
       <c r="F179" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P179" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R179" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -3648,12 +3668,12 @@
       <c r="F180" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P180" s="8"/>
-      <c r="AE180" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R180" s="8"/>
+      <c r="AG180" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -3663,11 +3683,11 @@
       <c r="C181" s="1">
         <v>-8.31</v>
       </c>
-      <c r="U181" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W181" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -3680,11 +3700,11 @@
       <c r="D182" s="1">
         <v>211.31</v>
       </c>
-      <c r="Z182" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB182" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -3694,11 +3714,11 @@
       <c r="C183" s="1">
         <v>-4.9800000000000004</v>
       </c>
-      <c r="U183" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W183" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -3711,11 +3731,11 @@
       <c r="D184" s="1">
         <v>161.33000000000001</v>
       </c>
-      <c r="Q184" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S184" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -3728,11 +3748,11 @@
       <c r="D185" s="1">
         <v>158.16</v>
       </c>
-      <c r="U185" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W185" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -3742,11 +3762,11 @@
       <c r="C186" s="1">
         <v>-2.99</v>
       </c>
-      <c r="U186" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W186" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -3759,12 +3779,12 @@
       <c r="D187" s="1">
         <v>279.58</v>
       </c>
-      <c r="U187" s="8"/>
-      <c r="AE187" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W187" s="8"/>
+      <c r="AG187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -3774,11 +3794,11 @@
       <c r="C188" s="1">
         <v>-5.4</v>
       </c>
-      <c r="U188" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W188" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -3788,11 +3808,11 @@
       <c r="C189" s="1">
         <v>-93.04</v>
       </c>
-      <c r="U189" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W189" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -3805,11 +3825,11 @@
       <c r="D190" s="1">
         <v>179.65</v>
       </c>
-      <c r="U190" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="W190" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -3819,11 +3839,11 @@
       <c r="C191" s="1">
         <v>-7.49</v>
       </c>
-      <c r="O191" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q191" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -3833,11 +3853,11 @@
       <c r="C192" s="1">
         <v>-22.76</v>
       </c>
-      <c r="Z192" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AB192" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -3847,11 +3867,11 @@
       <c r="C193" s="1">
         <v>-7.97</v>
       </c>
-      <c r="O193" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q193" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -3861,11 +3881,11 @@
       <c r="C194" s="1">
         <v>-5.19</v>
       </c>
-      <c r="U194" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W194" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -3875,17 +3895,17 @@
       <c r="C195" s="1">
         <v>582.33000000000004</v>
       </c>
-      <c r="G195" s="5">
+      <c r="I195" s="5">
         <v>43923</v>
       </c>
-      <c r="H195" s="5">
+      <c r="J195" s="5">
         <v>43929</v>
       </c>
-      <c r="L195" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="N195" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -3895,11 +3915,11 @@
       <c r="C196" s="1">
         <v>-3.87</v>
       </c>
-      <c r="U196" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W196" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -3909,11 +3929,11 @@
       <c r="C197" s="1">
         <v>-1.39</v>
       </c>
-      <c r="U197" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W197" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -3923,11 +3943,11 @@
       <c r="C198" s="1">
         <v>-6.6</v>
       </c>
-      <c r="O198" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q198" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -3937,11 +3957,11 @@
       <c r="C199" s="1">
         <v>-8.93</v>
       </c>
-      <c r="U199" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W199" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -3957,11 +3977,11 @@
       <c r="F200" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P200" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="R200" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -3974,11 +3994,11 @@
       <c r="F201" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AE201" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -3994,11 +4014,11 @@
       <c r="F202" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AE202" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG202" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -4014,11 +4034,11 @@
       <c r="F203" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AI203" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK203" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -4034,11 +4054,11 @@
       <c r="F204" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AE204" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AG204" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A205" s="13">
         <v>204</v>
       </c>
@@ -4054,11 +4074,13 @@
       <c r="F205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S205" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="U205" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A206" s="13">
         <v>205</v>
       </c>
@@ -4071,11 +4093,11 @@
       <c r="E206" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O206" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Q206" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -4085,11 +4107,11 @@
       <c r="C207" s="1">
         <v>-3.08</v>
       </c>
-      <c r="U207" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W207" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -4099,11 +4121,11 @@
       <c r="C208" s="1">
         <v>-15.67</v>
       </c>
-      <c r="Z208" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB208" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -4116,11 +4138,11 @@
       <c r="E209" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T209" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V209" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -4136,11 +4158,11 @@
       <c r="E210" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE210" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG210" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="13">
         <v>210</v>
       </c>
@@ -4150,11 +4172,11 @@
       <c r="C211" s="1">
         <v>-6.6</v>
       </c>
-      <c r="O211" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q211" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -4167,7 +4189,7 @@
       <c r="D212" s="1">
         <v>138.43</v>
       </c>
-      <c r="O212" s="8" t="s">
+      <c r="Q212" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="111">
   <si>
     <t>Betrag</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Hauptreferenz</t>
+  </si>
+  <si>
+    <t>HTP</t>
   </si>
 </sst>
 </file>
@@ -709,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK212"/>
+  <dimension ref="A1:AK213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4193,6 +4196,26 @@
         <v>67</v>
       </c>
     </row>
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A213" s="13">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5">
+        <v>43942</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-29.95</v>
+      </c>
+      <c r="D213" s="1">
+        <v>108.48</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V213" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
   <si>
     <t>Betrag</t>
   </si>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -432,6 +432,12 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -715,8 +721,8 @@
   <dimension ref="A1:AK213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,9 +734,9 @@
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="37" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -758,7 +764,7 @@
       <c r="G1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>109</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -767,7 +773,7 @@
       <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="14" t="s">
         <v>88</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -2480,6 +2486,9 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
+      <c r="K103" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="W103" s="8" t="s">
         <v>67</v>
       </c>
@@ -3205,8 +3214,7 @@
         <v>75</v>
       </c>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="K151" s="1"/>
+      <c r="K151" s="15"/>
       <c r="X151" s="8" t="s">
         <v>67</v>
       </c>
@@ -4078,7 +4086,6 @@
         <v>18</v>
       </c>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
       <c r="U205" s="8" t="s">
         <v>67</v>
       </c>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="111">
   <si>
     <t>Betrag</t>
   </si>
@@ -718,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK213"/>
+  <dimension ref="A1:AK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q218" sqref="Q218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4223,6 +4223,79 @@
         <v>67</v>
       </c>
     </row>
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A214" s="13">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5">
+        <v>43942</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Q214" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A215" s="13">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5">
+        <v>43943</v>
+      </c>
+      <c r="C215" s="1">
+        <v>-23.54</v>
+      </c>
+      <c r="AB215" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A216" s="13">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5">
+        <v>43943</v>
+      </c>
+      <c r="C216" s="1">
+        <v>998.28</v>
+      </c>
+      <c r="N216" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A217" s="13">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C217" s="1">
+        <v>-790</v>
+      </c>
+      <c r="M217" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A218" s="13">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C218" s="1">
+        <v>-6.3</v>
+      </c>
+      <c r="D218" s="1">
+        <v>278.12</v>
+      </c>
+      <c r="Q218" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="111">
   <si>
     <t>Betrag</t>
   </si>
@@ -721,8 +721,8 @@
   <dimension ref="A1:AK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q218" sqref="Q218"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
         <v>43837</v>
       </c>
       <c r="C15" s="1">
-        <v>-327.24</v>
+        <v>-327.45</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>45</v>
@@ -3338,6 +3338,9 @@
       </c>
       <c r="F159" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="AA159" s="8" t="s">
         <v>67</v>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -721,8 +721,8 @@
   <dimension ref="A1:AK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K216" sqref="K216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4264,6 +4264,12 @@
       <c r="C216" s="1">
         <v>998.28</v>
       </c>
+      <c r="I216" s="5">
+        <v>43930</v>
+      </c>
+      <c r="J216" s="5">
+        <v>43941</v>
+      </c>
       <c r="N216" s="8" t="s">
         <v>67</v>
       </c>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Betrag</t>
   </si>
@@ -720,9 +720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K216" sqref="K216"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2314,6 +2314,9 @@
       <c r="F92" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="K92" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="AA92" s="8" t="s">
         <v>67</v>
       </c>
@@ -2331,6 +2334,9 @@
       <c r="F93" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="K93" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="AA93" s="8" t="s">
         <v>67</v>
       </c>
@@ -2486,9 +2492,6 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="K103" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="W103" s="8" t="s">
         <v>67</v>
       </c>
@@ -3358,6 +3361,9 @@
       </c>
       <c r="F160" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="AA160" s="8" t="s">
         <v>67</v>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="113">
   <si>
     <t>Betrag</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>HTP</t>
+  </si>
+  <si>
+    <t>Prometha + Venla Apotheke</t>
+  </si>
+  <si>
+    <t>Gesundheit</t>
   </si>
 </sst>
 </file>
@@ -718,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK218"/>
+  <dimension ref="A1:AL221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL220" sqref="AL220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,10 +745,10 @@
     <col min="11" max="11" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="37" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="38" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="AK1" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL1" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -869,7 +878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -889,7 +898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -906,7 +915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -920,7 +929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -934,7 +943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -951,7 +960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -965,7 +974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -985,7 +994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -4144,7 +4153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A211" s="13">
         <v>210</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A213" s="13">
         <v>212</v>
       </c>
@@ -4232,7 +4241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A214" s="13">
         <v>213</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -4260,7 +4269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A216" s="13">
         <v>215</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A217" s="13">
         <v>216</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A218" s="13">
         <v>217</v>
       </c>
@@ -4308,6 +4317,55 @@
         <v>278.12</v>
       </c>
       <c r="Q218" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A219" s="13">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5">
+        <v>43945</v>
+      </c>
+      <c r="C219" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="W219" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A220" s="13">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5">
+        <v>43945</v>
+      </c>
+      <c r="C220" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q220" s="8"/>
+      <c r="AL220" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A221" s="13">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5">
+        <v>43945</v>
+      </c>
+      <c r="C221" s="1">
+        <v>-10.15</v>
+      </c>
+      <c r="D221" s="1">
+        <v>249.98</v>
+      </c>
+      <c r="Q221" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/VB/Buchungen.xlsx
+++ b/src/main/resources/VB/Buchungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
   <si>
     <t>Betrag</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Gesundheit</t>
+  </si>
+  <si>
+    <t>Blitzer</t>
   </si>
 </sst>
 </file>
@@ -724,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL221"/>
+  <dimension ref="A1:AL251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL220" sqref="AL220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K251" sqref="K251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,6 +4372,457 @@
         <v>67</v>
       </c>
     </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A222" s="13">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-31.69</v>
+      </c>
+      <c r="W222" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A223" s="13">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C223" s="1">
+        <v>-4.62</v>
+      </c>
+      <c r="W223" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A224" s="13">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-10.74</v>
+      </c>
+      <c r="W224" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A225" s="13">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C225" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="Q225" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A226" s="13">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-5.4</v>
+      </c>
+      <c r="W226" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A227" s="13">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C227" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="Q227" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A228" s="13">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C228" s="1">
+        <v>-30.12</v>
+      </c>
+      <c r="AB228" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A229" s="13">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C229" s="1">
+        <v>249.57</v>
+      </c>
+      <c r="I229" s="5">
+        <v>43942</v>
+      </c>
+      <c r="J229" s="5">
+        <v>43944</v>
+      </c>
+      <c r="N229" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A230" s="13">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5">
+        <v>43949</v>
+      </c>
+      <c r="C230" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH230" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A231" s="13">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C231" s="1">
+        <v>-24.94</v>
+      </c>
+      <c r="AE231" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A232" s="13">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C232" s="1">
+        <v>-19.809999999999999</v>
+      </c>
+      <c r="X232" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A233" s="13">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C233" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W233" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A234" s="13">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C234" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="Q234" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A235" s="13">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C235" s="1">
+        <v>415.95</v>
+      </c>
+      <c r="I235" s="5">
+        <v>43945</v>
+      </c>
+      <c r="J235" s="5">
+        <v>43949</v>
+      </c>
+      <c r="N235" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A236" s="13">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C236" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L236" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A237" s="13">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C237" s="1">
+        <v>-32.86</v>
+      </c>
+      <c r="Y237" s="8"/>
+      <c r="Z237" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A238" s="13">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C238" s="1">
+        <v>-20</v>
+      </c>
+      <c r="Y238" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A239" s="13">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C239" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA239" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A240" s="13">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C240" s="1">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="AA240" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A241" s="13">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C241" s="1">
+        <v>-11.99</v>
+      </c>
+      <c r="AG241" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A242" s="13">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C242" s="1">
+        <v>-35.409999999999997</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R242" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A243" s="13">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C243" s="1">
+        <v>-530</v>
+      </c>
+      <c r="O243" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A244" s="13">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C244" s="1">
+        <v>-7</v>
+      </c>
+      <c r="Q244" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A245" s="13">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C245" s="1">
+        <v>-5.4</v>
+      </c>
+      <c r="W245" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A246" s="13">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C246" s="1">
+        <v>-3.29</v>
+      </c>
+      <c r="W246" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A247" s="13">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C247" s="1">
+        <v>-42.01</v>
+      </c>
+      <c r="AB247" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A248" s="13">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-15.98</v>
+      </c>
+      <c r="W248" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A249" s="13">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C249" s="1">
+        <v>-6.3</v>
+      </c>
+      <c r="Q249" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A250" s="13">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5">
+        <v>43957</v>
+      </c>
+      <c r="C250" s="1">
+        <v>-14.29</v>
+      </c>
+      <c r="AG250" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A251" s="13">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5">
+        <v>43958</v>
+      </c>
+      <c r="C251" s="1">
+        <v>582.33000000000004</v>
+      </c>
+      <c r="D251" s="1">
+        <v>576.38</v>
+      </c>
+      <c r="I251" s="5">
+        <v>43950</v>
+      </c>
+      <c r="J251" s="5">
+        <v>43956</v>
+      </c>
+      <c r="N251" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
